--- a/ANVI.xlsx
+++ b/ANVI.xlsx
@@ -74,7 +74,7 @@
     <t>Equity income in investee</t>
   </si>
   <si>
-    <t>Extraordinary Gain</t>
+    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>234482</v>
+        <v>252622</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1421,7 +1421,9 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1592,7 +1594,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>168412</v>
+        <v>186552</v>
       </c>
       <c r="C26" s="3">
         <v>136558</v>
@@ -2370,7 +2372,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="3">
-        <v>1071298</v>
+        <v>1089438</v>
       </c>
       <c r="C40" s="3">
         <v>1327556</v>
